--- a/Misa_TruongWeb03_Files/FileStorage/Danh hiệu thi đua.xlsx
+++ b/Misa_TruongWeb03_Files/FileStorage/Danh hiệu thi đua.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MISA2023\BackendFolder\Backend_web03\FileStorage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mr_tr\WorkPlace\MISA\Misa_TruongFresherWeb03\Misa_TruongWeb03_Files\FileStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC6835-35FC-435A-AC12-FE446E20563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3BE33F-6953-4452-9EA2-14D1B6A59C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2805" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Tên danh hiệu thi đua</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t xml:space="preserve">dsfbs dfg sdfg fg </t>
-  </si>
-  <si>
-    <t>DDSF</t>
-  </si>
-  <si>
     <t>Tập thể</t>
   </si>
   <si>
@@ -61,18 +55,6 @@
     <t>Đang sử dụng</t>
   </si>
   <si>
-    <t>asd sadf bgd scss</t>
-  </si>
-  <si>
-    <t>ASBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adsf sadf sda g dfs ada sd asd asd </t>
-  </si>
-  <si>
-    <t>ASSGDASAA</t>
-  </si>
-  <si>
     <t>Cá nhân</t>
   </si>
   <si>
@@ -82,46 +64,7 @@
     <t>Theo đợt</t>
   </si>
   <si>
-    <t xml:space="preserve">safk sad fdg sdaf </t>
-  </si>
-  <si>
-    <t>SSFS</t>
-  </si>
-  <si>
-    <t>asd dfsg sad s</t>
-  </si>
-  <si>
-    <t>ADSS</t>
-  </si>
-  <si>
-    <t>123asd as sg</t>
-  </si>
-  <si>
-    <t>1AS</t>
-  </si>
-  <si>
-    <t>Chiến sĩ thi đua cơ sở</t>
-  </si>
-  <si>
-    <t>CSTĐCS</t>
-  </si>
-  <si>
     <t>Cấp Tỉnh/tương đương</t>
-  </si>
-  <si>
-    <t>Lao động tiên tiến</t>
-  </si>
-  <si>
-    <t>LĐTTCH</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Cờ thi đua cấp tỉnh</t>
-  </si>
-  <si>
-    <t>CTĐCT</t>
   </si>
   <si>
     <t>Cá nhân và tập thể</t>
@@ -191,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,206 +438,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -764,46 +507,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Misa_TruongWeb03_Files/FileStorage/Danh hiệu thi đua.xlsx
+++ b/Misa_TruongWeb03_Files/FileStorage/Danh hiệu thi đua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mr_tr\WorkPlace\MISA\Misa_TruongFresherWeb03\Misa_TruongWeb03_Files\FileStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3BE33F-6953-4452-9EA2-14D1B6A59C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7963C-C093-4E23-9208-623DD9C8BE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2805" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Tên danh hiệu thi đua</t>
-  </si>
-  <si>
-    <t>Mã danh hiệu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Đối tượng khen thưởng</t>
   </si>
@@ -80,13 +74,154 @@
   </si>
   <si>
     <t>Thường xuyên</t>
+  </si>
+  <si>
+    <t>Danh hiệu thi đua</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <r>
+      <t>Loại phong trào (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cấp khen thưởng (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đối tượng khen thưởng (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mã danh hiệu (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tên danh hiệu thi đua (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +237,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,9 +286,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,32 +571,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -445,30 +620,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C5EBE9B-3724-4A34-8389-0FE14B6C38A7}">
           <x14:formula1>
             <xm:f>Enum!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{835D5198-AB76-4EDD-BBDB-418F20EC2CC3}">
           <x14:formula1>
             <xm:f>Enum!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D3:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93F2BE53-3E1E-4D1C-A404-4064EAB14828}">
           <x14:formula1>
             <xm:f>Enum!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7FFF010-850E-4447-A86D-53B61E0F5F06}">
-          <x14:formula1>
-            <xm:f>Enum!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>E3:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -493,60 +662,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
